--- a/data_analyzed/Top Speed (m-s)/Top Speed (m-s)_games_3q.xlsx
+++ b/data_analyzed/Top Speed (m-s)/Top Speed (m-s)_games_3q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C2" t="n">
         <v>6.3512</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2.9334</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>5.8934</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>5.6667</v>
+      </c>
       <c r="J2" t="n">
+        <v>5.9067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.8934</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>6.3334</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.3845</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5.6089</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>6.0512</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>5.6534</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.1423</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>5.1823</v>
+      </c>
+      <c r="X2" t="n">
         <v>5.8845</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>6.2267</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AE2" t="n">
         <v>6.1689</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.9112</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C3" t="n">
         <v>5.0289</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.3489</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>2.0178</v>
-      </c>
+      <c r="E3" t="n">
+        <v>4.3378</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>5.9778</v>
+      </c>
       <c r="J3" t="n">
-        <v>6.2089</v>
+        <v>6.0334</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5489</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.2734</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>5.6045</v>
-      </c>
+        <v>2.0178</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>6.6734</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>4.2134</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.8889</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>6.2089</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.6289</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5489</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.1045</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.2734</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>5.6045</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>5.9645</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1.8156</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.1867</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>5.0134</v>
+      </c>
+      <c r="C4" t="n">
         <v>6.8356</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.5511</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>2.4756</v>
-      </c>
+      <c r="E4" t="n">
+        <v>2.0778</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>6.5467</v>
+      </c>
       <c r="J4" t="n">
+        <v>4.7245</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4756</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>6.5312</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>6.2889</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.7423</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>5.9423</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>5.6578</v>
+      </c>
+      <c r="V4" t="n">
         <v>5.5067</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>6.6267</v>
+      </c>
+      <c r="X4" t="n">
         <v>5.9112</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>5.3045</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>6.0889</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>5.1156</v>
+      </c>
+      <c r="AE4" t="n">
         <v>3.0934</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.0623</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>0.6933</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.9867</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.8222</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.7756</v>
-      </c>
+      <c r="E5" t="n">
+        <v>3.1134</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>5.8667</v>
+      </c>
       <c r="J5" t="n">
+        <v>6.4956</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7756</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>6.6378</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>5.3823</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.3067</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.3156</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>5.4756</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>6.0467</v>
+      </c>
+      <c r="V5" t="n">
         <v>6.7067</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>5.4089</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>0.5022</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>6.1534</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>6.1956</v>
+      </c>
+      <c r="AE5" t="n">
         <v>6.9378</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>6.5601</v>
+      </c>
+      <c r="C6" t="n">
         <v>6.4801</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.4178</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>5.0489</v>
-      </c>
+      <c r="E6" t="n">
+        <v>3.8978</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6.1512</v>
+      </c>
       <c r="J6" t="n">
+        <v>6.0578</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.0489</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>6.1067</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>5.6245</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>6.5289</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>5.5867</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.9956</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>6.7734</v>
+      </c>
+      <c r="X6" t="n">
         <v>5.6045</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>1.0889</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>6.2045</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>2.5334</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.5912</v>
+      </c>
+      <c r="AE6" t="n">
         <v>6.08</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>1.0333</v>
+      </c>
+      <c r="C7" t="n">
         <v>6.0023</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0.8778</v>
-      </c>
+      <c r="E7" t="n">
+        <v>3.0756</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>5.8356</v>
+      </c>
       <c r="J7" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>6.0178</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.4756</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.2934</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>6.7578</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>6.8978</v>
+      </c>
+      <c r="V7" t="n">
         <v>6.9156</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>6.4356</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>1.2889</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>6.3956</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.5912</v>
+      </c>
+      <c r="AE7" t="n">
         <v>6.6423</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.2978</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>3.4823</v>
-      </c>
+      <c r="E8" t="n">
+        <v>3.2889</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>5.4445</v>
+      </c>
       <c r="J8" t="n">
+        <v>5.0067</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.4823</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>6.1134</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>6.3845</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.6445</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.6445</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.8578</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>6.3023</v>
+      </c>
+      <c r="V8" t="n">
         <v>5.8667</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>5.8489</v>
+      </c>
+      <c r="X8" t="n">
         <v>5.9489</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>2.3467</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>6.1845</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>1.8045</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.1512</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5.9467</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>6.0534</v>
+      </c>
+      <c r="C9" t="n">
         <v>5.0223</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.6667</v>
-      </c>
+      <c r="E9" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>6.5689</v>
+      </c>
       <c r="J9" t="n">
+        <v>5.6045</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.6667</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>6.9289</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>5.8023</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5933</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.8223</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>5.6134</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>5.4267</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.0978</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>6.4223</v>
+      </c>
+      <c r="X9" t="n">
         <v>5.16</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>1.5733</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>6.0689</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>1.6489</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5956</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.7911</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>5.7934</v>
+      </c>
+      <c r="C10" t="n">
         <v>6.2401</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>1.2889</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>4.94</v>
+      </c>
       <c r="J10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.2889</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1.6533</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>1.5156</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.3756</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>5.9734</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>5.8889</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.8801</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>6.8089</v>
+      </c>
+      <c r="X10" t="n">
         <v>5.3467</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>6.2067</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>2.0711</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.3889</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>3.0667</v>
+      </c>
+      <c r="C11" t="n">
         <v>6.2734</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>5.2445</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>3.0467</v>
-      </c>
+      <c r="E11" t="n">
+        <v>3.9223</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>5.9334</v>
+      </c>
       <c r="J11" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.0467</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>5.6578</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.6622</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.1289</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>6.2223</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>5.3823</v>
+      </c>
+      <c r="V11" t="n">
         <v>6.9556</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>7.1134</v>
+      </c>
+      <c r="X11" t="n">
         <v>5.6934</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>2.6956</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>6.2845</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>1.5645</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.9934</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6.5689</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>6.5556</v>
+      </c>
+      <c r="C12" t="n">
         <v>7.0689</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>4.1934</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>4.4223</v>
-      </c>
+      <c r="E12" t="n">
+        <v>4.1267</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>6.6356</v>
+      </c>
       <c r="J12" t="n">
+        <v>6.4756</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.4223</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>6.1467</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>5.7867</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.2089</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>7.0401</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>7.0267</v>
+      </c>
+      <c r="V12" t="n">
         <v>5.2045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>4.2756</v>
+      </c>
+      <c r="X12" t="n">
         <v>5.6312</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>4.0667</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>6.2445</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>3.6889</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.5912</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6.1512</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>5.9912</v>
+      </c>
+      <c r="C13" t="n">
         <v>6.9778</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>4.5911</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>1.5133</v>
-      </c>
+      <c r="E13" t="n">
+        <v>3.1222</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>6.5067</v>
+      </c>
       <c r="J13" t="n">
+        <v>5.4356</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.5133</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>6.7778</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>6.2201</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.4467</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5.8045</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>5.8245</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>5.6223</v>
+      </c>
+      <c r="V13" t="n">
         <v>5.9112</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>6.4089</v>
+      </c>
+      <c r="X13" t="n">
         <v>5.74</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>1.4467</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>5.3112</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>1.7889</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.8489</v>
+      </c>
+      <c r="AE13" t="n">
         <v>6.5245</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.2711</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>6.4245</v>
+      </c>
+      <c r="C14" t="n">
         <v>5.9267</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>4.1245</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>2.48</v>
-      </c>
+      <c r="E14" t="n">
+        <v>3.8578</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>7.0578</v>
+      </c>
       <c r="J14" t="n">
+        <v>1.6756</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>7.0267</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>6.5467</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.0845</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.3912</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>6.2067</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>6.1156</v>
+      </c>
+      <c r="V14" t="n">
         <v>6.0045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>7.0578</v>
+      </c>
+      <c r="X14" t="n">
         <v>4.9845</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>1.5956</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>5.1823</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>3.4089</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.8756</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6.3134</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5.6712</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>1.6822</v>
+      </c>
+      <c r="C15" t="n">
         <v>6.0534</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1.0578</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.4178</v>
-      </c>
+      <c r="E15" t="n">
+        <v>4.0134</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>6.2801</v>
+      </c>
       <c r="J15" t="n">
+        <v>6.6223</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.4178</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>6.4956</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>5.7689</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.6511</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>6.3378</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>5.7778</v>
+      </c>
+      <c r="V15" t="n">
         <v>6.0178</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>6.4178</v>
+      </c>
+      <c r="X15" t="n">
         <v>5.3223</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>1.0733</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>6.7956</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>1.4045</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5556</v>
+      </c>
+      <c r="AE15" t="n">
         <v>6.7112</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.1645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>6.7245</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>3.4022</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1.4267</v>
-      </c>
+      <c r="E16" t="n">
+        <v>4.1023</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1.28</v>
+      </c>
       <c r="J16" t="n">
+        <v>5.9334</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.4267</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>6.5023</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>6.1334</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.2845</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.1912</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>6.6112</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>6.5067</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.3645</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>6.6178</v>
+      </c>
+      <c r="X16" t="n">
         <v>5.4245</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>1.2933</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>6.1689</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>1.3933</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.7178</v>
+      </c>
+      <c r="AE16" t="n">
         <v>6.5334</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.3778</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>5.5467</v>
+      </c>
+      <c r="C17" t="n">
         <v>7.1023</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>3.0356</v>
-      </c>
+      <c r="E17" t="n">
+        <v>3.1511</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.6711</v>
+      </c>
       <c r="J17" t="n">
+        <v>6.0178</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.0356</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>6.2245</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.6778</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.8934</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>6.4089</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>5.0534</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.48</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>6.3689</v>
+      </c>
+      <c r="X17" t="n">
         <v>7.0712</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>3.1156</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>6.1156</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>1.4578</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.0267</v>
+      </c>
+      <c r="AE17" t="n">
         <v>6.4889</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>5.7912</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>5.4756</v>
+      </c>
+      <c r="C18" t="n">
         <v>6.2489</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>4.1867</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1.8045</v>
-      </c>
+      <c r="E18" t="n">
+        <v>4.1556</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>6.0245</v>
+      </c>
       <c r="J18" t="n">
+        <v>1.5911</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.8045</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1.6311</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>5.7689</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.5911</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.3778</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>6.4845</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>6.3423</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.4667</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>6.3734</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>6.0023</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>1.4267</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.9867</v>
+      </c>
+      <c r="AE18" t="n">
         <v>5.8178</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.3933</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1058 +1910,1760 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C19" t="n">
         <v>6.1289</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1.3311</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1.6289</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>5.8667</v>
+      </c>
       <c r="J19" t="n">
+        <v>1.4445</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.6289</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1.4933</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>6.7378</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.4911</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6.3289</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>6.02</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>4.8423</v>
+      </c>
+      <c r="V19" t="n">
         <v>5.2756</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>6.3467</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>1.4156</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>6.3001</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>4.3689</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.1423</v>
+      </c>
+      <c r="AE19" t="n">
         <v>6.6534</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.6267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>6.0023</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5.6912</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>6.9067</v>
-      </c>
+      <c r="E20" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>6.7334</v>
+      </c>
       <c r="J20" t="n">
+        <v>5.5356</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.9067</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>6.2734</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>6.0578</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>6.4467</v>
+      </c>
+      <c r="V20" t="n">
         <v>5.6667</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>6.4689</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>6.2112</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>3.7911</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>6.7178</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>6.0445</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>5.1156</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="n">
+        <v>3.4667</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>6.6245</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.6623</v>
+      </c>
+      <c r="X21" t="n">
         <v>5.1423</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>5.5334</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>6.1534</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>6.2667</v>
+      </c>
+      <c r="G22" t="n">
         <v>6.1134</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>4.8</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>6.4845</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9445</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.4956</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>4.9689</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>5.4334</v>
+      </c>
+      <c r="R22" t="n">
         <v>5.96</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>6.9023</v>
+      </c>
+      <c r="T22" t="n">
         <v>5.3934</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>5.9823</v>
+      </c>
+      <c r="V22" t="n">
         <v>4.6823</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>6.1778</v>
+      </c>
+      <c r="X22" t="n">
         <v>5.7912</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>5.5067</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>5.7</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>6.6623</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>6.1867</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>5.9845</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1.7045</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>6.7601</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.5022</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>1.5778</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>5.7067</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.6334</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.8311</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>5.5023</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="R23" t="n">
         <v>5.9689</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>6.0978</v>
+      </c>
+      <c r="T23" t="n">
         <v>5.1734</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>5.5556</v>
+      </c>
+      <c r="V23" t="n">
         <v>5.5534</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>6.7045</v>
+      </c>
+      <c r="X23" t="n">
         <v>6.5245</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>5.4623</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>6.4801</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>1.5067</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>6.0134</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.6711</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>7.0312</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.6267</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>3.8511</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>6.6423</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.4289</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.6511</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>6.1423</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="R24" t="n">
         <v>2.6134</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>5.9467</v>
+      </c>
+      <c r="T24" t="n">
         <v>6.5556</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>1.8422</v>
+      </c>
+      <c r="V24" t="n">
         <v>6.0023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>6.3156</v>
+      </c>
+      <c r="X24" t="n">
         <v>6.1245</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>2.4845</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>6.5889</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>6.8023</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>6.0445</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>6.9201</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.7578</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>3.6778</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>7.5801</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.9245</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>5.6978</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>5.6134</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.4533</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="T25" t="n">
         <v>5.8489</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>5.5267</v>
+      </c>
+      <c r="V25" t="n">
         <v>6.3556</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>6.3756</v>
+      </c>
+      <c r="X25" t="n">
         <v>5.6334</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>5.3023</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>5.4912</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>1.6756</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>5.1845</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>1.2311</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>6.3045</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.2378</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>1.3</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>6.9712</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.8289</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.1733</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>5.2223</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.3067</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T26" t="n">
         <v>5.66</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>0.9889</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>6.4912</v>
+      </c>
+      <c r="X26" t="n">
         <v>5.9467</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>5.7356</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>6.3423</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>5.8889</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>1.0222</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>6.1912</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>1.6311</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>6.9912</v>
+      </c>
+      <c r="G27" t="n">
         <v>5.4356</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>5.08</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.3556</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.3467</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>5.9467</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>6.9445</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.0489</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>6.5556</v>
+      </c>
+      <c r="T27" t="n">
         <v>6.3089</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>5.7912</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>6.0289</v>
+      </c>
+      <c r="X27" t="n">
         <v>6.3334</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>6.8867</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>6.3734</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>7.2178</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>1</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>5.8823</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>7.689</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.2645</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>1.2045</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>5.9867</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.1423</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.8623</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>5.5112</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>6.0512</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.4133</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>6.7178</v>
+      </c>
+      <c r="T28" t="n">
         <v>6.0556</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>1.4933</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.2489</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>6.4934</v>
+      </c>
+      <c r="X28" t="n">
         <v>5.6534</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>5.8045</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>5.56</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>5.4489</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>5.8689</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1.7511</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>7.0978</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.46</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>1.2045</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.4201</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.5667</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>6.1778</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>2.1822</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>6.4889</v>
+      </c>
+      <c r="T29" t="n">
         <v>6.2934</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>1.6445</v>
+      </c>
+      <c r="V29" t="n">
         <v>5.6578</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>6.5956</v>
+      </c>
+      <c r="X29" t="n">
         <v>6.3689</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>6.08</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>6.6356</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>6.8956</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>1.9645</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>1.48</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>6.3312</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.2378</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>1.1667</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>5.9823</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.8134</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.3822</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>6.0267</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>1.5089</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>6.2712</v>
+      </c>
+      <c r="T30" t="n">
         <v>6.9089</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>6.8512</v>
+      </c>
+      <c r="V30" t="n">
         <v>6.0867</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>6.3467</v>
+      </c>
+      <c r="X30" t="n">
         <v>6.7601</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>1.3911</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>7.3223</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>5.3289</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>1.6489</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>6.6734</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.4667</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>1.26</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>5.9512</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.7556</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>5.9712</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>1.6045</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>5.9956</v>
+      </c>
+      <c r="T31" t="n">
         <v>5.8712</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>6.0134</v>
+      </c>
+      <c r="V31" t="n">
         <v>6.5778</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>5.8756</v>
+      </c>
+      <c r="X31" t="n">
         <v>6.2756</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>6.1245</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>6.9778</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>6.0378</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>6.2134</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>7.0378</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.6133</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>1.2422</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>6.4023</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6.0089</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>6.1912</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>5.6712</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>6.8378</v>
+      </c>
+      <c r="T32" t="n">
         <v>6.8312</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>6.0756</v>
+      </c>
+      <c r="V32" t="n">
         <v>6.9667</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="X32" t="n">
         <v>6.9512</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>5.4178</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>6.8889</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>4.9378</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>5.6889</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>6.8467</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>7.0356</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.6645</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>6.5956</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>6.2178</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>7.1601</v>
+      </c>
+      <c r="T33" t="n">
         <v>6.2801</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>1.1822</v>
+      </c>
+      <c r="V33" t="n">
         <v>5.9023</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>6.1712</v>
+      </c>
+      <c r="X33" t="n">
         <v>6.7334</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>6.5112</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>6.2845</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>1.0489</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>7.2712</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>7.4067</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>6.5756</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.6711</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>6.4267</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>6.7023</v>
+      </c>
+      <c r="T34" t="n">
         <v>5.3578</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>5.8534</v>
+      </c>
+      <c r="V34" t="n">
         <v>7.0289</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>7.1067</v>
+      </c>
+      <c r="X34" t="n">
         <v>6.7445</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>6.5089</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>6.2978</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>7.4045</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>6.2645</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>2.6667</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>6.6845</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.0356</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>1.1978</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>5.4889</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6.0934</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>6.2778</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>6.1823</v>
+      </c>
+      <c r="T35" t="n">
         <v>5.9289</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>2.2045</v>
+      </c>
+      <c r="V35" t="n">
         <v>6.2289</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>7.1378</v>
+      </c>
+      <c r="X35" t="n">
         <v>6.4778</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>5.5156</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>6.3534</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>6.8489</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>6.3912</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>2.7334</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>1.4445</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>6.7845</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>1.4445</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.7467</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>6.0956</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>6.6312</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>6.4889</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>6.9067</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>6.4289</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>6.1956</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>7.6023</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>6.4134</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>5.8823</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>6.3801</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>5.2623</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.7623</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>5.7512</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>5.9778</v>
+      </c>
+      <c r="T37" t="n">
         <v>5.4267</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>5.7956</v>
+      </c>
+      <c r="V37" t="n">
         <v>6.1023</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>6.3112</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>5.96</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>5.7467</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>5.7823</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>1.9289</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>4.0667</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.0534</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>0.3822</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>2.0689</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>5.9156</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>6.4289</v>
+      </c>
+      <c r="T38" t="n">
         <v>5.6667</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>5.0267</v>
+      </c>
+      <c r="V38" t="n">
         <v>6.4178</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>1.9667</v>
+      </c>
+      <c r="X38" t="n">
         <v>5.5112</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>6.2867</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>5.5467</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>7.2134</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>5.8556</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>1.6333</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>7.1289</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.6022</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>0.9933</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>6.1556</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.2378</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>6.4578</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>6.8912</v>
+      </c>
+      <c r="T39" t="n">
         <v>5.9912</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>6.5112</v>
+      </c>
+      <c r="V39" t="n">
         <v>6.3156</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>6.7578</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>5.6</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>7.2512</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>7.3378</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>6.1934</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>1.7333</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>5.8134</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.7378</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>1.6045</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>1.5556</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.4356</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>6.4245</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>6.5734</v>
+      </c>
+      <c r="T40" t="n">
         <v>6.1912</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>1.4778</v>
+      </c>
+      <c r="V40" t="n">
         <v>6.0578</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>1.5245</v>
+      </c>
+      <c r="X40" t="n">
         <v>6.3112</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>6.1156</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>6.5178</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>7.2667</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>7.2756</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>1.3022</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>6.4845</v>
+      </c>
+      <c r="G41" t="n">
         <v>1.4178</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>0.9689</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>5.8267</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>6.0156</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>4.7711</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>6.2334</v>
+      </c>
+      <c r="T41" t="n">
         <v>6.5601</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V41" t="n">
         <v>5.8912</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>6.5823</v>
+      </c>
+      <c r="X41" t="n">
         <v>6.2556</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>5.6978</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>6.0556</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>6.4356</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>6.08</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>1.1422</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>5.8689</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.1556</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>0.7911</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>6.6089</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.9489</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>6.6001</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>1.0667</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>6.5912</v>
+      </c>
+      <c r="T42" t="n">
         <v>6.2978</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>1.6845</v>
+      </c>
+      <c r="V42" t="n">
         <v>6.7801</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>4.0023</v>
+      </c>
+      <c r="X42" t="n">
         <v>5.6623</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>6.1334</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>6.1756</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>7.1578</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>5.8134</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>5.4045</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>5.4267</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>5.0889</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>6.1956</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>6.7334</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>6.08</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>6.1378</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>5.7112</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>6.1334</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>6.4401</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>6.3378</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>7.0556</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>6.4756</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,38 +3672,54 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>5.5089</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>5.8578</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>5.5845</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>5.3112</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>6.0534</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>5.4534</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>5.7112</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>5.7823</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>6.6578</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>6.02</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
